--- a/testcase/功能权限.xlsx
+++ b/testcase/功能权限.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/canyueyinxue/auto_test/testcase/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/canyueyinxue/newCode/testcase/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3020" yWindow="6020" windowWidth="28800" windowHeight="16700" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16700" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="功能权限" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>测试场景</t>
     <rPh sb="0" eb="1">
@@ -154,11 +154,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://authom.chfcloud.com/cs/api/data/system/2bd319c1ff844d91aaa3ddbb5ded5680/function_permission?parentId=9dab78c349234404995f3333cbd35424&amp;authoToken=8d271427-48f4-478e-b0c3-701c14210c6c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://authom.chfcloud.com/cs/api/data/system/2bd319c1ff844d91aaa3ddbb5ded5680/function_permission?parentId=9dab78c349234404995f3333cbd35424&amp;authoToken=8d271427-48f4-478e-b0c3-701c14210c6c</t>
+    <t>http://authom.chfcloud.com/cs/api/data/system/2bd319c1ff844d91aaa3ddbb5ded5680/function_permission?parentId=9dab78c349234404995f3333cbd35424</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -503,7 +499,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -570,7 +566,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>14</v>
